--- a/app/src/main/assets/dataset_pengujian_fiks.xlsx
+++ b/app/src/main/assets/dataset_pengujian_fiks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\Eksperimen\RAGHaji\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8822D7A6-0AFA-4F54-BC64-92194EB9872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71244C-F3EB-441B-B511-9E6C425FF7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B5EA1384-9E01-4D5E-8CF1-1E30AA41160B}"/>
   </bookViews>
@@ -36,232 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>query</t>
   </si>
   <si>
     <t>correct_answer</t>
-  </si>
-  <si>
-    <t>Apa yang dimaksud dengan ihram?</t>
-  </si>
-  <si>
-    <t>Ihram adalah niat masuk (mengerjakan) dalam ibadah haji dan umrah dengan menghindari hal-hal yang dilarang selama berihram.</t>
-  </si>
-  <si>
-    <t>Bagaimana bentuk pakaian ihram bagi laki-laki dan perempuan?</t>
-  </si>
-  <si>
-    <t>Pakaian ihram bagi laki-laki adalah dua helai kain yang tidak berjahit; satu helai dipakai sebagai sarung dan satu helai sebagai selendang (disandangkan di bahu). Pakaian ihram tersebut bagi laki-laki disunatkan berwarna putih, sedangkan bagi perempuan adalah pakaian biasa yang menutup seluruh badan, tetapi harus terbuka bagian muka dan kedua telapak tangannya.</t>
-  </si>
-  <si>
-    <t>Apa boleh dalam keadaan ihram menyembelih hewan ternak untuk keperluan makan?</t>
-  </si>
-  <si>
-    <t>Boleh, karena yang dilarang adalah berburu dan membunuh binatang buruan darat yang halal serta binatang lain yang tidak membahayakan.</t>
-  </si>
-  <si>
-    <t>Apa saja yang dilarang selama dalam keadaan ihram?</t>
-  </si>
-  <si>
-    <t>Bagi laki-laki dilarang:
-1. Memakai pakaian biasa.
-2. Memakai kaos kaki atau sepatu yang menutupi mata kaki dan tumit.
-3. Menutup kepala yang melekat seperti: topi atau peci dan sorban.
-Bagi perempuan dilarang:
-1. Menutup kedua telapak tangan dengan kaos tangan.
-2. Menutup muka dengan cadar.
-Larangan selama ihram bagi laki-laki dan perempuan adalah:
-1. Memakai wangi-wangian kecuali yang sudah dipakai di badan sebelum niat haji/umrah.
-2. Memotong kuku dan mencukur atau mencabut rambut dan bulu badan.
-3. Memburu dan menganiaya/ membunuh binatang dengan cara apapun, kecuali binatang yang membahayakan boleh dibunuh.
-4. Menikah, menikahkan atau meminang perempuan untuk dinikahi.
-5. Bercumbu atau bersetubuh.
-6. Mencaci, bertengkar atau mengucapkan katakata kotor.</t>
-  </si>
-  <si>
-    <t>Apa saja ibadah yang boleh dilakukan oleh perempuan selama haid dalam ibadah haji?</t>
-  </si>
-  <si>
-    <t>Semua ibadah boleh dilakukan, kecuali salat dan tawaf.</t>
-  </si>
-  <si>
-    <t>Ada berapa macam tawaf itu?</t>
-  </si>
-  <si>
-    <t>Tawaf ada 5 (lima) macam, yaitu:
-a. Tawaf qudum
-b. Tawaf rukun (ifadah dan umrah)
-c. Tawaf sunat
-d. Tawaf wada’
-e. Tawaf nadzar</t>
-  </si>
-  <si>
-    <t>Apakah jemaah haji laki-laki atau perempuan yang sedang berihram boleh melepaskan pakaian ihramnya?</t>
-  </si>
-  <si>
-    <t>Boleh, melepas pakaian ihramnya di tempat tertutup, seperti ketika berhajat di kamar mandi atau menggantikannya karena kotor. Apabila membuka pakaian ihram di tempat terbuka hukumnya haram, tetapi tidak kena dam.</t>
-  </si>
-  <si>
-    <t>Apakah boleh berihram haji/umrah sebelum sampai mīqāt?</t>
-  </si>
-  <si>
-    <t>Boleh berihram haji/umrah sebelum sampai mīqāt. Menurut Abu Hanifah hukumya lebih utama.</t>
-  </si>
-  <si>
-    <t>Apa hukumnya membuka kain ihram jemaah haji sakit karena alasan perawatan?</t>
-  </si>
-  <si>
-    <t>Boleh karena darurat. Pada saat sudah memungkinkan, wajib mengenakan kembali kain ihramnya tanpa dam dan tidak perlu niat (ihram) lagi. Apabila tidak memungkinkan memakai kain ihram, boleh melaksanakan hajinya tanpa kain ihram, akan tetapi dikenakan dam.</t>
-  </si>
-  <si>
-    <t>Apa hukumnya memotong/mencukur/ mencukur rambut, memotong kuku, atau memakai wangi-wangian dalam keadaan ihram?</t>
-  </si>
-  <si>
-    <t>Hukumnya dilarang, memotong/mencukur/mencabut rambut. Memotong kuku atau memakai wangiwangian dalam keadaan ihram wajib membayar fidyah (denda), dengan memilih salah satu diantara tiga, yaitu menyembelih seekor kambing atau bersedekah kepada 6 (enam) orang fakir miskin masing-masing 1/2 sa’ (2 mud = 1 1/2 kg) beras makanan pokok atau berpuasa tiga hari.</t>
-  </si>
-  <si>
-    <t>Apakah boleh berbicara dengan kata-kata kotor (keji) atau berbuat fasiq sewaktu melakukan ibadah haji?</t>
-  </si>
-  <si>
-    <t>Tidak diperbolehkan, dan apabila hal itu dilakukan hajinya sah, tidak membayar dam/fidyah, akan tetapi menggugurkan pahala hajinya.</t>
-  </si>
-  <si>
-    <t>Apakah boleh laki-laki yang sedang berihram menutup kepala dengan payung?</t>
-  </si>
-  <si>
-    <t>Boleh, menutup kepala dengan sesuatu yang tidak menempel di kepala, seperti payung.</t>
-  </si>
-  <si>
-    <t>Apakah boleh jemaah haji yang sedang berihram memakai jam tangan, cincin atau sabuk?</t>
-  </si>
-  <si>
-    <t>Boleh, jemaah haji yang sedang berihram memakai jam tangan, cincin, dan sabuk, karena peralatan tersebut tidak termasuk pakaian.</t>
-  </si>
-  <si>
-    <t>Apakah boleh jemaah haji yang sedang ihram menggunakan pasta gigi, sabun mandi, membunuh nyamuk dan lalat?</t>
-  </si>
-  <si>
-    <t>Boleh dan tidak kena dam, karena bertujuan untuk kebersihan gigi dan merawat kesehatan (tidak untuk wangi-wangian). Demikian juga diperbolehkan membunuh nyamuk, lalat, dan binatang lain yang mengganggu.</t>
-  </si>
-  <si>
-    <t>Apa hukumnya menyisir rambut dalam keadaan ihram?</t>
-  </si>
-  <si>
-    <t>Boleh, apabila berkeyakinan tidak akan merontokkan rambutnya, akan tetapi sebaiknya dihindari.</t>
-  </si>
-  <si>
-    <t>Apakah boleh suami-istri yang sedang menunaikan ibadah haji bersetubuh (jima’)?</t>
-  </si>
-  <si>
-    <t>Boleh, apabila tidak sedang dalam keadaan ihram dan sudah tahallul tsani.</t>
-  </si>
-  <si>
-    <t>Apa yang dimaksud mīqāt makānī?</t>
-  </si>
-  <si>
-    <t>Mīqāt makānī adalah tempat yang dijadikan batas untuk memulai ihram haji/umrah.</t>
-  </si>
-  <si>
-    <t>Di mana letak mīqāt makānī itu?</t>
-  </si>
-  <si>
-    <t>Letak mīqāt makānī ada 5 (lima) tempat, yaitu:
-1. Zulhulaifah (Bir Ali), tempat mīqāt-nya bagi penduduk Madinah dan yang melewatinya.
-2. Juhfah, mīqāt-nya penduduk Syam dan yang melewatinya.
-3. Qarnul Manazil (as-Sail), mīqāt-nya penduduk Najad dan yang melewatinya.
-4. Yalamlam, mīqāt-nya penduduk Yaman dan yang melewatinya.
-5. Zatu Irqin, mīqāt-nya penduduk Iraq dan yang melewatinya.
-Tempat-tempat tersebut di atas telah ditetapkan oleh Rasulullah SAW sebagai mīqāt makānī untuk berhaji/umrah bagi penduduk dan bagi setiap orang yang melewatinya walaupun bukan termasuk penduduknya.</t>
-  </si>
-  <si>
-    <t>Dimanakah letak mīqāt makānī jemaah haji Indonesia?</t>
-  </si>
-  <si>
-    <t>Letak mīqāt makānī bagi jemaah haji Indonesia gelombang I yang datang dari Madinah adalah Zulhulaifah (Bir Ali). Sedangkan jemaah haji Indonesia gelombang II yang langsung ke Makkah, mīqāt makānīnya adalah di atas udara sejajar dengan Yalamlam/Qarnul Manazil. Apabila dianggap sulit, dapat dilaksanakan di Asrama Haji Embarkasi atau setelah sampai di Bandar Udara internasional King Abdul Aziz (KAIA) Jeddah.</t>
-  </si>
-  <si>
-    <t>Apa yang dimaksud tawaf?</t>
-  </si>
-  <si>
-    <t>Tawaf adalah mengelilingi Ka’bah sebanyak 7 (tujuh) kali putaran dengan berjalan kaki, di mana Ka’bah selalu berada di sebelah kirinya, dimulai dan diakhiri pada arah sejajar dengan Hajar Aswad. Bagi yang uzur boleh menggunakan kursi roda yang tawafnya dilakukan di lantai 2, lantai 3 dan lantai 4, atau skuter matik yang tersedia di tempat khusus di lantai tiga.</t>
-  </si>
-  <si>
-    <t>Apakah setiap orang yang masuk Masjidil Haram harus tawaf sunah?</t>
-  </si>
-  <si>
-    <t>Tidak harus tawaf, hanya saja bila memungkinkan dapat melaksanakan tawaf sebagai pengganti salat sunat tahiyyatul masjid.</t>
-  </si>
-  <si>
-    <t>Apakah setiap orang melakukan tawaf harus suci dari hadas besar atau kecil?</t>
-  </si>
-  <si>
-    <t>Ya, setiap orang yang melakukan tawaf harus suci dari hadas besar dan hadas kecil.</t>
-  </si>
-  <si>
-    <t>Apakah jemaah haji yang batal wudunya harus mengulangi tawafnya?</t>
-  </si>
-  <si>
-    <t>Wajib berwudu dan mengulang putaran tawaf yang batal dari arah sejajar Hajar Aswad mulai tawaf. Sementara putaran tawaf sebelumnya sah.</t>
-  </si>
-  <si>
-    <t>Apakah orang yang tawaf harus menghentikan tawafnya apabila datang waktu salat wajib yang dilakukan berjamaah?</t>
-  </si>
-  <si>
-    <t>Apabila datang waktu salat wajib yang dilakukan berjamaah, maka bagi yang tawaf harus menghentikan tawafnya untuk mengikuti salat berjamaah lebih dahulu dan putaran tawaf yang masih tersisa diteruskan setelah selesai salat dari tempat di mana ia mulai niat memasuki barisan/saf salat.</t>
-  </si>
-  <si>
-    <t>Wajibkah menghadap sepenuh badan ke Ka’bah ketika akan memulai tawaf?</t>
-  </si>
-  <si>
-    <t>Menghadap sepenuh badan ke Ka’bah ketika akan memulai tawaf tidak wajib, tetapi disunahkan apabila keadaan memungkinkan. Jika tidak memungkinkan cukup dengan memiringkan badan dan menghadap muka ke arah Ka’bah serta melambaikan tangan dan mengecupnya sambil mengucapkan: BismillāhiWallāhu Akbar.</t>
-  </si>
-  <si>
-    <t>Apakah disunahkan mengusap atau isyarat pada waktu melewati Rukun Yamani?</t>
-  </si>
-  <si>
-    <t>Disunahkan istilam/melambaikan tangan ke arah Rukun Yamani dan tangannya tidak usah dikecup.</t>
-  </si>
-  <si>
-    <t>Apa hukumnya ramal (lari-lari) bagi laki- laki pada putaran tawaf ke 1 s.d. 3?</t>
-  </si>
-  <si>
-    <t>Disunahkan bila situasinya memungkinkan. Namun tidak disunahkan bagi perempuan.</t>
-  </si>
-  <si>
-    <t>Apa yang dimaksud salat sunat tawaf?</t>
-  </si>
-  <si>
-    <t>Salat sunat tawaf adalah salat 2 (dua) rakaat yang dilakukan setelah selesai tawaf.</t>
-  </si>
-  <si>
-    <t>Di manakah melaksanakan salat sunat tawaf?</t>
-  </si>
-  <si>
-    <t>Salat sunat tawaf dilakukan di belakang Maqam Ibrahim. Bila tidak mungkin, maka dilakukan di mana saja, baik di dalam maupun di luar Masjidil Haram, dan baik di Tanah Haram maupun di luar Tanah Haram.</t>
-  </si>
-  <si>
-    <t>Apakah setiap tawaf harus diikuti dengan sa’i?</t>
-  </si>
-  <si>
-    <t>Tidak semua tawaf harus diikuti dengan sa’i, seperti tawaf sunat.</t>
-  </si>
-  <si>
-    <t>Ada berapa macam tawaf yang diikuti sa’i?</t>
-  </si>
-  <si>
-    <t>Ada tiga macam:
-a. Tawaf ifadah, yakni tawaf rukun haji bagi haji tamattu’ dan bagi haji ifrād atau haji qirān yang belum sa’i setelah waktu tawaf qudum
-b. Tawaf qudum bagi haji ifrād atau haji qirān.
-c. Tawaf umrah.</t>
-  </si>
-  <si>
-    <t>Apakah batal wudunya apabila laki-laki dan perempuan bersentuhan badan ketika tawaf?</t>
-  </si>
-  <si>
-    <t>Persentuhan kulit laki-laki dan wanita ajnabi menurut madzhab Syafi’i mengakibatkan batal wudhu. Namun menurut madzhab Maliki tidak membatalkan wudhu. Dalam kondisi semacam ini timbul permasalahan perpindahan madzhab (talfiq). Pada dasarnya perpindahan madzhab dibolehkan, karena dharurat syar’i.
-Namun dalam hal wudhu maka talfiqnya dengan cara mengikuti imam Malik yaitu wudhunya menggosok-gosok anggota wudhu dan harus menyapu seluruh kepalanya.1 Karena itu, sebaiknya jemaah haji ketika hendak tawaf agar wudhunya mengikuti cara imam Malik.</t>
   </si>
   <si>
     <t>Apakah yang dimaksud tawaf qudum?</t>
@@ -1080,7 +860,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,6 +897,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1145,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,6 +947,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6615E550-A005-43DE-80DA-ADF16A76CB83}">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1517,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1533,23 +1322,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="263" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1557,231 +1346,231 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" ht="113" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1789,7 +1578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1797,31 +1586,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -1829,7 +1618,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -1837,35 +1626,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1877,47 +1666,47 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="113" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="113" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
@@ -1926,26 +1715,26 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" ht="313" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1958,62 +1747,62 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2021,23 +1810,23 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2045,7 +1834,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2053,15 +1842,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:2" ht="263" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2069,7 +1858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2077,7 +1866,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2093,23 +1882,23 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2117,7 +1906,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -2125,15 +1914,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -2141,7 +1930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -2149,7 +1938,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -2157,31 +1946,31 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:2" ht="200.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="113" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -2189,7 +1978,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="313" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -2198,22 +1987,22 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -2221,7 +2010,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -2229,7 +2018,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>180</v>
       </c>
@@ -2237,7 +2026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>182</v>
       </c>
@@ -2245,15 +2034,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>186</v>
       </c>
@@ -2262,30 +2051,30 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -2293,11 +2082,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2309,7 +2098,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="263" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -2317,389 +2106,169 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="2" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="2" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="2" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="5" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="338" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="5" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="200.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="5" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="163" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="213" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="338" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="338" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="163" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>296</v>
-      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
